--- a/Data/EC/NIT-9005074692.xlsx
+++ b/Data/EC/NIT-9005074692.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{348B947E-E9C3-4AEE-B8B2-CC4807FA23AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F3C73FE9-5D66-4E3C-A7F4-AF06F860D06A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{C9F607E7-F6DA-4C8B-AE84-E7B7864E0D44}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{EE2842DF-59D3-414E-91F5-819AA375715B}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -71,139 +71,139 @@
     <t>LUCILA VILLERO HERNANDEZ</t>
   </si>
   <si>
+    <t>1607</t>
+  </si>
+  <si>
+    <t>1608</t>
+  </si>
+  <si>
+    <t>1609</t>
+  </si>
+  <si>
+    <t>1610</t>
+  </si>
+  <si>
+    <t>1611</t>
+  </si>
+  <si>
+    <t>1612</t>
+  </si>
+  <si>
+    <t>1701</t>
+  </si>
+  <si>
+    <t>1702</t>
+  </si>
+  <si>
+    <t>1703</t>
+  </si>
+  <si>
+    <t>1704</t>
+  </si>
+  <si>
+    <t>1705</t>
+  </si>
+  <si>
+    <t>1706</t>
+  </si>
+  <si>
+    <t>1707</t>
+  </si>
+  <si>
+    <t>1708</t>
+  </si>
+  <si>
+    <t>1709</t>
+  </si>
+  <si>
+    <t>1710</t>
+  </si>
+  <si>
+    <t>1711</t>
+  </si>
+  <si>
+    <t>1712</t>
+  </si>
+  <si>
+    <t>1801</t>
+  </si>
+  <si>
+    <t>1802</t>
+  </si>
+  <si>
+    <t>1803</t>
+  </si>
+  <si>
+    <t>1804</t>
+  </si>
+  <si>
+    <t>1805</t>
+  </si>
+  <si>
+    <t>1806</t>
+  </si>
+  <si>
+    <t>1807</t>
+  </si>
+  <si>
+    <t>1808</t>
+  </si>
+  <si>
+    <t>1809</t>
+  </si>
+  <si>
+    <t>1810</t>
+  </si>
+  <si>
+    <t>1811</t>
+  </si>
+  <si>
+    <t>1812</t>
+  </si>
+  <si>
+    <t>1901</t>
+  </si>
+  <si>
+    <t>1902</t>
+  </si>
+  <si>
+    <t>1903</t>
+  </si>
+  <si>
+    <t>1904</t>
+  </si>
+  <si>
+    <t>1905</t>
+  </si>
+  <si>
+    <t>1906</t>
+  </si>
+  <si>
+    <t>1907</t>
+  </si>
+  <si>
+    <t>1908</t>
+  </si>
+  <si>
+    <t>1909</t>
+  </si>
+  <si>
+    <t>1910</t>
+  </si>
+  <si>
+    <t>1911</t>
+  </si>
+  <si>
+    <t>1912</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
     <t>2003</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>1912</t>
-  </si>
-  <si>
-    <t>1911</t>
-  </si>
-  <si>
-    <t>1910</t>
-  </si>
-  <si>
-    <t>1909</t>
-  </si>
-  <si>
-    <t>1908</t>
-  </si>
-  <si>
-    <t>1907</t>
-  </si>
-  <si>
-    <t>1906</t>
-  </si>
-  <si>
-    <t>1905</t>
-  </si>
-  <si>
-    <t>1904</t>
-  </si>
-  <si>
-    <t>1903</t>
-  </si>
-  <si>
-    <t>1902</t>
-  </si>
-  <si>
-    <t>1901</t>
-  </si>
-  <si>
-    <t>1812</t>
-  </si>
-  <si>
-    <t>1811</t>
-  </si>
-  <si>
-    <t>1810</t>
-  </si>
-  <si>
-    <t>1809</t>
-  </si>
-  <si>
-    <t>1808</t>
-  </si>
-  <si>
-    <t>1807</t>
-  </si>
-  <si>
-    <t>1806</t>
-  </si>
-  <si>
-    <t>1805</t>
-  </si>
-  <si>
-    <t>1804</t>
-  </si>
-  <si>
-    <t>1803</t>
-  </si>
-  <si>
-    <t>1802</t>
-  </si>
-  <si>
-    <t>1801</t>
-  </si>
-  <si>
-    <t>1712</t>
-  </si>
-  <si>
-    <t>1711</t>
-  </si>
-  <si>
-    <t>1710</t>
-  </si>
-  <si>
-    <t>1709</t>
-  </si>
-  <si>
-    <t>1708</t>
-  </si>
-  <si>
-    <t>1707</t>
-  </si>
-  <si>
-    <t>1706</t>
-  </si>
-  <si>
-    <t>1705</t>
-  </si>
-  <si>
-    <t>1704</t>
-  </si>
-  <si>
-    <t>1703</t>
-  </si>
-  <si>
-    <t>1702</t>
-  </si>
-  <si>
-    <t>1701</t>
-  </si>
-  <si>
-    <t>1612</t>
-  </si>
-  <si>
-    <t>1611</t>
-  </si>
-  <si>
-    <t>1610</t>
-  </si>
-  <si>
-    <t>1609</t>
-  </si>
-  <si>
-    <t>1608</t>
-  </si>
-  <si>
-    <t>1607</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -302,7 +302,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -315,9 +317,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -517,23 +517,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -561,10 +561,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -617,7 +617,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD1AF002-B930-CE6F-729A-9774F52E1148}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA8AC297-5A33-D134-E282-F0AB0D3D152E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -968,7 +968,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7C051B7-F867-4A25-A7C3-85613E5B8E1A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD785499-44FE-4026-96CD-653F38CE96BE}">
   <dimension ref="B2:J66"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1146,7 +1146,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>31249</v>
+        <v>29600</v>
       </c>
       <c r="G16" s="18">
         <v>781242</v>
@@ -1169,7 +1169,7 @@
         <v>12</v>
       </c>
       <c r="F17" s="18">
-        <v>31249</v>
+        <v>29600</v>
       </c>
       <c r="G17" s="18">
         <v>781242</v>
@@ -1192,7 +1192,7 @@
         <v>13</v>
       </c>
       <c r="F18" s="18">
-        <v>31249</v>
+        <v>29600</v>
       </c>
       <c r="G18" s="18">
         <v>781242</v>
@@ -1215,7 +1215,7 @@
         <v>14</v>
       </c>
       <c r="F19" s="18">
-        <v>31249</v>
+        <v>29600</v>
       </c>
       <c r="G19" s="18">
         <v>781242</v>
@@ -1238,7 +1238,7 @@
         <v>15</v>
       </c>
       <c r="F20" s="18">
-        <v>31249</v>
+        <v>29600</v>
       </c>
       <c r="G20" s="18">
         <v>781242</v>
@@ -1261,7 +1261,7 @@
         <v>16</v>
       </c>
       <c r="F21" s="18">
-        <v>31249</v>
+        <v>29600</v>
       </c>
       <c r="G21" s="18">
         <v>781242</v>
@@ -1284,7 +1284,7 @@
         <v>17</v>
       </c>
       <c r="F22" s="18">
-        <v>31249</v>
+        <v>29600</v>
       </c>
       <c r="G22" s="18">
         <v>781242</v>
@@ -1307,7 +1307,7 @@
         <v>18</v>
       </c>
       <c r="F23" s="18">
-        <v>31249</v>
+        <v>29600</v>
       </c>
       <c r="G23" s="18">
         <v>781242</v>
@@ -1330,7 +1330,7 @@
         <v>19</v>
       </c>
       <c r="F24" s="18">
-        <v>31249</v>
+        <v>29600</v>
       </c>
       <c r="G24" s="18">
         <v>781242</v>
@@ -1353,7 +1353,7 @@
         <v>20</v>
       </c>
       <c r="F25" s="18">
-        <v>31249</v>
+        <v>29600</v>
       </c>
       <c r="G25" s="18">
         <v>781242</v>
@@ -1376,7 +1376,7 @@
         <v>21</v>
       </c>
       <c r="F26" s="18">
-        <v>31249</v>
+        <v>29600</v>
       </c>
       <c r="G26" s="18">
         <v>781242</v>
@@ -1399,7 +1399,7 @@
         <v>22</v>
       </c>
       <c r="F27" s="18">
-        <v>31249</v>
+        <v>29600</v>
       </c>
       <c r="G27" s="18">
         <v>781242</v>
@@ -1422,7 +1422,7 @@
         <v>23</v>
       </c>
       <c r="F28" s="18">
-        <v>31249</v>
+        <v>29600</v>
       </c>
       <c r="G28" s="18">
         <v>781242</v>
@@ -1445,7 +1445,7 @@
         <v>24</v>
       </c>
       <c r="F29" s="18">
-        <v>31249</v>
+        <v>29600</v>
       </c>
       <c r="G29" s="18">
         <v>781242</v>
@@ -1468,7 +1468,7 @@
         <v>25</v>
       </c>
       <c r="F30" s="18">
-        <v>31249</v>
+        <v>29600</v>
       </c>
       <c r="G30" s="18">
         <v>781242</v>
@@ -1491,7 +1491,7 @@
         <v>26</v>
       </c>
       <c r="F31" s="18">
-        <v>31249</v>
+        <v>29600</v>
       </c>
       <c r="G31" s="18">
         <v>781242</v>
@@ -1514,7 +1514,7 @@
         <v>27</v>
       </c>
       <c r="F32" s="18">
-        <v>31249</v>
+        <v>29600</v>
       </c>
       <c r="G32" s="18">
         <v>781242</v>
@@ -1537,7 +1537,7 @@
         <v>28</v>
       </c>
       <c r="F33" s="18">
-        <v>31249</v>
+        <v>29600</v>
       </c>
       <c r="G33" s="18">
         <v>781242</v>
@@ -1560,7 +1560,7 @@
         <v>29</v>
       </c>
       <c r="F34" s="18">
-        <v>31249</v>
+        <v>29600</v>
       </c>
       <c r="G34" s="18">
         <v>781242</v>
@@ -1744,7 +1744,7 @@
         <v>37</v>
       </c>
       <c r="F42" s="18">
-        <v>29600</v>
+        <v>31249</v>
       </c>
       <c r="G42" s="18">
         <v>781242</v>
@@ -1767,7 +1767,7 @@
         <v>38</v>
       </c>
       <c r="F43" s="18">
-        <v>29600</v>
+        <v>31249</v>
       </c>
       <c r="G43" s="18">
         <v>781242</v>
@@ -1790,7 +1790,7 @@
         <v>39</v>
       </c>
       <c r="F44" s="18">
-        <v>29600</v>
+        <v>31249</v>
       </c>
       <c r="G44" s="18">
         <v>781242</v>
@@ -1813,7 +1813,7 @@
         <v>40</v>
       </c>
       <c r="F45" s="18">
-        <v>29600</v>
+        <v>31249</v>
       </c>
       <c r="G45" s="18">
         <v>781242</v>
@@ -1836,7 +1836,7 @@
         <v>41</v>
       </c>
       <c r="F46" s="18">
-        <v>29600</v>
+        <v>31249</v>
       </c>
       <c r="G46" s="18">
         <v>781242</v>
@@ -1859,7 +1859,7 @@
         <v>42</v>
       </c>
       <c r="F47" s="18">
-        <v>29600</v>
+        <v>31249</v>
       </c>
       <c r="G47" s="18">
         <v>781242</v>
@@ -1882,7 +1882,7 @@
         <v>43</v>
       </c>
       <c r="F48" s="18">
-        <v>29600</v>
+        <v>31249</v>
       </c>
       <c r="G48" s="18">
         <v>781242</v>
@@ -1905,7 +1905,7 @@
         <v>44</v>
       </c>
       <c r="F49" s="18">
-        <v>29600</v>
+        <v>31249</v>
       </c>
       <c r="G49" s="18">
         <v>781242</v>
@@ -1928,7 +1928,7 @@
         <v>45</v>
       </c>
       <c r="F50" s="18">
-        <v>29600</v>
+        <v>31249</v>
       </c>
       <c r="G50" s="18">
         <v>781242</v>
@@ -1951,7 +1951,7 @@
         <v>46</v>
       </c>
       <c r="F51" s="18">
-        <v>29600</v>
+        <v>31249</v>
       </c>
       <c r="G51" s="18">
         <v>781242</v>
@@ -1974,7 +1974,7 @@
         <v>47</v>
       </c>
       <c r="F52" s="18">
-        <v>29600</v>
+        <v>31249</v>
       </c>
       <c r="G52" s="18">
         <v>781242</v>
@@ -1997,7 +1997,7 @@
         <v>48</v>
       </c>
       <c r="F53" s="18">
-        <v>29600</v>
+        <v>31249</v>
       </c>
       <c r="G53" s="18">
         <v>781242</v>
@@ -2020,7 +2020,7 @@
         <v>49</v>
       </c>
       <c r="F54" s="18">
-        <v>29600</v>
+        <v>31249</v>
       </c>
       <c r="G54" s="18">
         <v>781242</v>
@@ -2043,7 +2043,7 @@
         <v>50</v>
       </c>
       <c r="F55" s="18">
-        <v>29600</v>
+        <v>31249</v>
       </c>
       <c r="G55" s="18">
         <v>781242</v>
@@ -2066,7 +2066,7 @@
         <v>51</v>
       </c>
       <c r="F56" s="18">
-        <v>29600</v>
+        <v>31249</v>
       </c>
       <c r="G56" s="18">
         <v>781242</v>
@@ -2089,7 +2089,7 @@
         <v>52</v>
       </c>
       <c r="F57" s="18">
-        <v>29600</v>
+        <v>31249</v>
       </c>
       <c r="G57" s="18">
         <v>781242</v>
@@ -2112,7 +2112,7 @@
         <v>53</v>
       </c>
       <c r="F58" s="18">
-        <v>29600</v>
+        <v>31249</v>
       </c>
       <c r="G58" s="18">
         <v>781242</v>
@@ -2135,7 +2135,7 @@
         <v>54</v>
       </c>
       <c r="F59" s="18">
-        <v>29600</v>
+        <v>31249</v>
       </c>
       <c r="G59" s="18">
         <v>781242</v>
@@ -2158,7 +2158,7 @@
         <v>55</v>
       </c>
       <c r="F60" s="24">
-        <v>29600</v>
+        <v>31249</v>
       </c>
       <c r="G60" s="24">
         <v>781242</v>
